--- a/Assignment 1/MS-E2134_1st_assigment.xlsx
+++ b/Assignment 1/MS-E2134_1st_assigment.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59a73ea97849167b/Documents/GitHub/Decision-Making-and-Problem-Solving-course-2021/Assignment 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Christian Segercrant\Documents\GitHub\Decision-Making-and-Problem-Solving-course-2021\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F43BAD85-0768-4575-967A-772DC297B0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7AFEBE-4E2B-4FD4-BF81-A7306D64CE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EA4513AF-EBE5-4CAA-90F2-33784181542F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA4513AF-EBE5-4CAA-90F2-33784181542F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ex2" sheetId="1" r:id="rId1"/>
+    <sheet name="Ex3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>P(dis=true)</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>P(dis=true|dia=true)</t>
-  </si>
-  <si>
-    <t>p(test=false|dis=false)</t>
   </si>
   <si>
     <t>P(test=true|dis=true)</t>
@@ -82,9 +79,6 @@
     <t>p(j)</t>
   </si>
   <si>
-    <t>CMF</t>
-  </si>
-  <si>
     <t>CDF</t>
   </si>
   <si>
@@ -92,6 +86,39 @@
   </si>
   <si>
     <t>Alternative results:</t>
+  </si>
+  <si>
+    <t>Prob calculation</t>
+  </si>
+  <si>
+    <t>=B5*B2+C6*C2</t>
+  </si>
+  <si>
+    <t>=B5*B2/B9</t>
+  </si>
+  <si>
+    <t>=B5*B2+C7*C2</t>
+  </si>
+  <si>
+    <t>=B5*B2/B14</t>
+  </si>
+  <si>
+    <t>PMF</t>
+  </si>
+  <si>
+    <t>P(test=false|dis=false)</t>
+  </si>
+  <si>
+    <t>P(test=true AND dia=true)</t>
+  </si>
+  <si>
+    <t>=B5*B4/B11</t>
+  </si>
+  <si>
+    <t>=B5*B4+C7*C4</t>
+  </si>
+  <si>
+    <t>=B5*B4/B17</t>
   </si>
 </sst>
 </file>
@@ -122,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,18 +157,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,7 +242,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-FI"/>
-              <a:t>CMF</a:t>
+              <a:t>PMF</a:t>
             </a:r>
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
@@ -309,7 +356,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$12:$A$17</c:f>
+              <c:f>'Ex3'!$A$12:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -336,7 +383,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$12:$F$17</c:f>
+              <c:f>'Ex3'!$F$12:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -895,7 +942,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$K$12:$K$23</c:f>
+              <c:f>'Ex3'!$K$12:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -940,7 +987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$12:$L$23</c:f>
+              <c:f>'Ex3'!$L$12:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1024,7 +1071,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$K$12:$K$23</c15:sqref>
+                          <c15:sqref>'Ex3'!$K$12:$K$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1075,7 +1122,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$K$13:$K$23</c15:sqref>
+                          <c15:sqref>'Ex3'!$K$13:$K$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2792,163 +2839,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B48483F-B497-4030-BC84-313379FF1D89}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>5.5E-2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <f>1-B2</f>
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C10" si="0">1-B3</f>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C12" si="0">1-B3</f>
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
         <v>0.99</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7">
         <v>0.98</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7">
         <v>0.99</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
         <f>B5*B2+C6*C2</f>
         <v>7.3350000000000012E-2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>0.92664999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7">
         <f>B5*B2/B9</f>
         <v>0.7423312883435581</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>0.2576687116564419</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7">
+        <f>B5*B4+C6*C4</f>
+        <v>0.18005000000000002</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.81994999999999996</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B12" s="7">
+        <f>B5*B4/B11</f>
+        <v>0.90724798667036921</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>9.2752013329630789E-2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7">
         <f>B5*B2+C7*C2</f>
         <v>6.3900000000000012E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2">
-        <f>B5*B2/B14</f>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7">
+        <f>B5*B2/B15</f>
         <v>0.85211267605633789</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7">
+        <f>B5*B4+C7*C4</f>
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7">
+        <f>B5*B4/B17</f>
+        <v>0.95136866627839256</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2959,203 +3080,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE943B9-F0A9-4CB2-9B52-F4151CD3F5A3}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B8" s="10">
         <v>0.1</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C8" s="10">
         <v>0.25</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D8" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="10">
         <v>0.25</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="8">
         <f>B2*B$8</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="8">
         <f t="shared" ref="C12:E12" si="0">C2*C$8</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="4">
-        <f>SUM(B12:E12)</f>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F17" si="1">SUM(B12:E12)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="8">
         <f>SUM($F$12:F12)</f>
         <v>9.0000000000000011E-2</v>
       </c>
@@ -3166,31 +3287,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="4">
-        <f t="shared" ref="B13:E17" si="1">B3*B$8</f>
+      <c r="B13" s="8">
+        <f t="shared" ref="B13:E17" si="2">B3*B$8</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="2"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F13" s="8">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="F13" s="4">
-        <f>SUM(B13:E13)</f>
         <v>0.15250000000000002</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="8">
         <f>SUM($F$12:F13)</f>
         <v>0.24250000000000005</v>
       </c>
@@ -3201,31 +3322,31 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="8">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F14" s="4">
-        <f>SUM(B14:E14)</f>
         <v>0.215</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="8">
         <f>SUM($F$12:F14)</f>
         <v>0.45750000000000002</v>
       </c>
@@ -3236,31 +3357,31 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="8">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <f>SUM(B15:E15)</f>
         <v>0.20800000000000002</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="8">
         <f>SUM($F$12:F15)</f>
         <v>0.66549999999999998</v>
       </c>
@@ -3271,31 +3392,31 @@
         <v>0.24250000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="8">
+        <f t="shared" si="2"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1125</v>
+      </c>
+      <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>5.000000000000001E-3</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1125</v>
-      </c>
-      <c r="F16" s="4">
-        <f>SUM(B16:E16)</f>
         <v>0.24249999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="8">
         <f>SUM($F$12:F16)</f>
         <v>0.90799999999999992</v>
       </c>
@@ -3306,31 +3427,31 @@
         <v>0.24250000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="8">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="2"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F17" s="8">
         <f t="shared" si="1"/>
-        <v>2E-3</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="1"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="F17" s="4">
-        <f>SUM(B17:E17)</f>
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="8">
         <f>SUM($F$12:F17)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -3341,7 +3462,7 @@
         <v>0.45750000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="F18" s="4"/>
       <c r="K18">
@@ -3351,7 +3472,7 @@
         <v>0.45750000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K19">
         <v>3</v>
       </c>
@@ -3359,7 +3480,7 @@
         <v>0.66549999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>4</v>
       </c>
@@ -3367,7 +3488,7 @@
         <v>0.66549999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K21">
         <v>4</v>
       </c>
@@ -3375,7 +3496,7 @@
         <v>0.90799999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K22">
         <v>5</v>
       </c>
@@ -3383,7 +3504,7 @@
         <v>0.90799999999999992</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K23">
         <v>5</v>
       </c>
